--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD3-ArticulosProductos_150429.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD3-ArticulosProductos_150429.xlsx
@@ -405,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -428,9 +428,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -447,9 +444,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -466,6 +460,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,28 +776,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="43.42578125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="4.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="43.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="7" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -809,464 +812,464 @@
       <c r="F1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>7</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="9"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>7</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>7</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>255</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>255</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>10.199999999999999</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="17" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>10.199999999999999</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>10.199999999999999</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>10.199999999999999</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="17" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>10.199999999999999</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>10.199999999999999</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>10.199999999999999</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="17" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>10.199999999999999</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="18"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="17" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>10.199999999999999</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13" t="s">
+      <c r="E15" s="12"/>
+      <c r="F15" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="H15" s="18"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="17" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="17" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="19"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="19"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="19"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="17" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13" t="s">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="s">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
@@ -1277,10 +1280,10 @@
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="20"/>
+      <c r="C26" s="18"/>
     </row>
     <row r="27" spans="1:8" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
